--- a/SchedulingData/static8/pso/scheduling1_13.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_13.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>81.09999999999999</v>
+        <v>96.78</v>
       </c>
       <c r="E2" t="n">
-        <v>26.52</v>
+        <v>25.952</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59.9</v>
+        <v>69.34</v>
       </c>
       <c r="E3" t="n">
-        <v>26.2</v>
+        <v>26.216</v>
       </c>
     </row>
     <row r="4">
@@ -504,188 +504,188 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>65.44</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>27.096</v>
+        <v>25.996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>83.88</v>
+        <v>70.86</v>
       </c>
       <c r="E5" t="n">
-        <v>26.752</v>
+        <v>26.064</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>59.9</v>
+        <v>70.86</v>
       </c>
       <c r="D6" t="n">
-        <v>128.46</v>
+        <v>137.46</v>
       </c>
       <c r="E6" t="n">
-        <v>22.924</v>
+        <v>23.504</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>69.34</v>
       </c>
       <c r="D7" t="n">
-        <v>85.76000000000001</v>
+        <v>135.78</v>
       </c>
       <c r="E7" t="n">
-        <v>26.084</v>
+        <v>22.212</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>128.46</v>
+        <v>135.78</v>
       </c>
       <c r="D8" t="n">
-        <v>208.16</v>
+        <v>202.08</v>
       </c>
       <c r="E8" t="n">
-        <v>19.024</v>
+        <v>18.692</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>48.42</v>
+        <v>137.84</v>
       </c>
       <c r="E9" t="n">
-        <v>26.348</v>
+        <v>21.016</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>208.16</v>
+        <v>137.46</v>
       </c>
       <c r="D10" t="n">
-        <v>263.78</v>
+        <v>209.66</v>
       </c>
       <c r="E10" t="n">
-        <v>15.592</v>
+        <v>17.904</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>83.88</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>165.56</v>
+        <v>58.8</v>
       </c>
       <c r="E11" t="n">
-        <v>23.164</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>165.56</v>
+        <v>209.66</v>
       </c>
       <c r="D12" t="n">
-        <v>216.06</v>
+        <v>264.86</v>
       </c>
       <c r="E12" t="n">
-        <v>19.244</v>
+        <v>13.524</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>85.76000000000001</v>
+        <v>137.84</v>
       </c>
       <c r="D13" t="n">
-        <v>162.16</v>
+        <v>193.4</v>
       </c>
       <c r="E13" t="n">
-        <v>20.564</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="14">
@@ -694,22 +694,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>81.09999999999999</v>
+        <v>202.08</v>
       </c>
       <c r="D14" t="n">
-        <v>154.24</v>
+        <v>278.78</v>
       </c>
       <c r="E14" t="n">
-        <v>23.816</v>
+        <v>14.612</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -717,70 +717,70 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>154.24</v>
+        <v>264.86</v>
       </c>
       <c r="D15" t="n">
-        <v>230.88</v>
+        <v>331.6</v>
       </c>
       <c r="E15" t="n">
-        <v>18.772</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>65.44</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.44</v>
+        <v>65.38</v>
       </c>
       <c r="E16" t="n">
-        <v>22.116</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>230.88</v>
+        <v>331.6</v>
       </c>
       <c r="D17" t="n">
-        <v>276.5</v>
+        <v>401.9</v>
       </c>
       <c r="E17" t="n">
-        <v>15.34</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>48.42</v>
+        <v>58.8</v>
       </c>
       <c r="D18" t="n">
-        <v>121.82</v>
+        <v>113.1</v>
       </c>
       <c r="E18" t="n">
-        <v>22.148</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -789,93 +789,93 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>162.16</v>
+        <v>113.1</v>
       </c>
       <c r="D19" t="n">
-        <v>208.76</v>
+        <v>169.72</v>
       </c>
       <c r="E19" t="n">
-        <v>17.044</v>
+        <v>18.448</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>146.44</v>
+        <v>401.9</v>
       </c>
       <c r="D20" t="n">
-        <v>208.44</v>
+        <v>452.52</v>
       </c>
       <c r="E20" t="n">
-        <v>18.036</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>208.44</v>
+        <v>452.52</v>
       </c>
       <c r="D21" t="n">
-        <v>258.96</v>
+        <v>547.86</v>
       </c>
       <c r="E21" t="n">
-        <v>15.124</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>208.76</v>
+        <v>65.38</v>
       </c>
       <c r="D22" t="n">
-        <v>262.16</v>
+        <v>113.78</v>
       </c>
       <c r="E22" t="n">
-        <v>12.844</v>
+        <v>22.912</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>262.16</v>
+        <v>113.78</v>
       </c>
       <c r="D23" t="n">
-        <v>349.14</v>
+        <v>170.88</v>
       </c>
       <c r="E23" t="n">
-        <v>8.756</v>
+        <v>18.832</v>
       </c>
     </row>
     <row r="24">
@@ -884,174 +884,174 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>216.06</v>
+        <v>96.78</v>
       </c>
       <c r="D24" t="n">
-        <v>275.94</v>
+        <v>139.18</v>
       </c>
       <c r="E24" t="n">
-        <v>14.876</v>
+        <v>22.352</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>258.96</v>
+        <v>169.72</v>
       </c>
       <c r="D25" t="n">
-        <v>331.26</v>
+        <v>249.12</v>
       </c>
       <c r="E25" t="n">
-        <v>9.523999999999999</v>
+        <v>13.108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>349.14</v>
+        <v>139.18</v>
       </c>
       <c r="D26" t="n">
-        <v>418.4</v>
+        <v>179.52</v>
       </c>
       <c r="E26" t="n">
-        <v>4.96</v>
+        <v>19.448</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>263.78</v>
+        <v>193.4</v>
       </c>
       <c r="D27" t="n">
-        <v>323.72</v>
+        <v>254.9</v>
       </c>
       <c r="E27" t="n">
-        <v>12.688</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>275.94</v>
+        <v>249.12</v>
       </c>
       <c r="D28" t="n">
-        <v>351.34</v>
+        <v>322.58</v>
       </c>
       <c r="E28" t="n">
-        <v>10.456</v>
+        <v>9.832000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>331.26</v>
+        <v>179.52</v>
       </c>
       <c r="D29" t="n">
-        <v>400.66</v>
+        <v>231.42</v>
       </c>
       <c r="E29" t="n">
-        <v>5.684</v>
+        <v>15.888</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>418.4</v>
+        <v>547.86</v>
       </c>
       <c r="D30" t="n">
-        <v>463.1</v>
+        <v>582.9400000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>2.12</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>121.82</v>
+        <v>231.42</v>
       </c>
       <c r="D31" t="n">
-        <v>198.42</v>
+        <v>305.5</v>
       </c>
       <c r="E31" t="n">
-        <v>18.588</v>
+        <v>12.08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>198.42</v>
+        <v>322.58</v>
       </c>
       <c r="D32" t="n">
-        <v>253.46</v>
+        <v>372.38</v>
       </c>
       <c r="E32" t="n">
-        <v>14.724</v>
+        <v>5.992</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1059,170 +1059,170 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>276.5</v>
+        <v>372.38</v>
       </c>
       <c r="D33" t="n">
-        <v>329.3</v>
+        <v>459.78</v>
       </c>
       <c r="E33" t="n">
-        <v>11.7</v>
+        <v>2.352</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>400.66</v>
+        <v>305.5</v>
       </c>
       <c r="D34" t="n">
-        <v>461.12</v>
+        <v>361.32</v>
       </c>
       <c r="E34" t="n">
-        <v>1.748</v>
+        <v>8.128</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>461.12</v>
+        <v>278.78</v>
       </c>
       <c r="D35" t="n">
-        <v>544.22</v>
+        <v>328.04</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>10.816</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>329.3</v>
+        <v>459.78</v>
       </c>
       <c r="D36" t="n">
-        <v>375.04</v>
+        <v>546.78</v>
       </c>
       <c r="E36" t="n">
-        <v>9.236000000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>544.22</v>
+        <v>546.78</v>
       </c>
       <c r="D37" t="n">
-        <v>591.14</v>
+        <v>601.58</v>
       </c>
       <c r="E37" t="n">
-        <v>27.008</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>351.34</v>
+        <v>601.58</v>
       </c>
       <c r="D38" t="n">
-        <v>417.58</v>
+        <v>649.72</v>
       </c>
       <c r="E38" t="n">
-        <v>6.452</v>
+        <v>23.516</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>253.46</v>
+        <v>361.32</v>
       </c>
       <c r="D39" t="n">
-        <v>305.06</v>
+        <v>406.64</v>
       </c>
       <c r="E39" t="n">
-        <v>10.704</v>
+        <v>5.216</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>375.04</v>
+        <v>254.9</v>
       </c>
       <c r="D40" t="n">
-        <v>458.78</v>
+        <v>299.18</v>
       </c>
       <c r="E40" t="n">
-        <v>5.452</v>
+        <v>10.272</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>305.06</v>
+        <v>406.64</v>
       </c>
       <c r="D41" t="n">
-        <v>364.04</v>
+        <v>470.64</v>
       </c>
       <c r="E41" t="n">
-        <v>7.896</v>
+        <v>1.916</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>463.1</v>
+        <v>470.64</v>
       </c>
       <c r="D42" t="n">
-        <v>570.16</v>
+        <v>563.21</v>
       </c>
       <c r="E42" t="n">
         <v>30</v>
@@ -1241,59 +1241,59 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>570.16</v>
+        <v>582.9400000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>644.54</v>
+        <v>630.22</v>
       </c>
       <c r="E43" t="n">
-        <v>27.192</v>
+        <v>23.604</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>644.54</v>
+        <v>170.88</v>
       </c>
       <c r="D44" t="n">
-        <v>725.08</v>
+        <v>237.68</v>
       </c>
       <c r="E44" t="n">
-        <v>24.228</v>
+        <v>14.752</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>323.72</v>
+        <v>299.18</v>
       </c>
       <c r="D45" t="n">
-        <v>380.5</v>
+        <v>376.52</v>
       </c>
       <c r="E45" t="n">
-        <v>8.640000000000001</v>
+        <v>6.128</v>
       </c>
     </row>
     <row r="46">
@@ -1302,36 +1302,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>380.5</v>
+        <v>237.68</v>
       </c>
       <c r="D46" t="n">
-        <v>424.8</v>
+        <v>286.56</v>
       </c>
       <c r="E46" t="n">
-        <v>5.34</v>
+        <v>11.504</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>364.04</v>
+        <v>328.04</v>
       </c>
       <c r="D47" t="n">
-        <v>400.94</v>
+        <v>383.46</v>
       </c>
       <c r="E47" t="n">
-        <v>5.336</v>
+        <v>7.384</v>
       </c>
     </row>
     <row r="48">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>417.58</v>
+        <v>563.21</v>
       </c>
       <c r="D48" t="n">
-        <v>483.2</v>
+        <v>636.29</v>
       </c>
       <c r="E48" t="n">
-        <v>3.02</v>
+        <v>25.352</v>
       </c>
     </row>
     <row r="49">
@@ -1359,36 +1359,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>424.8</v>
+        <v>286.56</v>
       </c>
       <c r="D49" t="n">
-        <v>514</v>
+        <v>332</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>514</v>
+        <v>383.46</v>
       </c>
       <c r="D50" t="n">
-        <v>581</v>
+        <v>439.12</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>3.448</v>
       </c>
     </row>
     <row r="51">
@@ -1397,17 +1397,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>400.94</v>
+        <v>630.22</v>
       </c>
       <c r="D51" t="n">
-        <v>481.3</v>
+        <v>680.72</v>
       </c>
       <c r="E51" t="n">
-        <v>1.4</v>
+        <v>19.684</v>
       </c>
     </row>
     <row r="52">
@@ -1416,41 +1416,41 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>481.3</v>
+        <v>680.72</v>
       </c>
       <c r="D52" t="n">
-        <v>575</v>
+        <v>721.9400000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>16.692</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>458.78</v>
+        <v>376.52</v>
       </c>
       <c r="D53" t="n">
-        <v>528.78</v>
+        <v>443.12</v>
       </c>
       <c r="E53" t="n">
-        <v>1.072</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>528.78</v>
+        <v>443.12</v>
       </c>
       <c r="D54" t="n">
-        <v>613.34</v>
+        <v>518.7</v>
       </c>
       <c r="E54" t="n">
         <v>30</v>
@@ -1469,45 +1469,45 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>725.08</v>
+        <v>439.12</v>
       </c>
       <c r="D55" t="n">
-        <v>763.42</v>
+        <v>518.8200000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>21.524</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>581</v>
+        <v>518.8200000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>668.2</v>
+        <v>593.96</v>
       </c>
       <c r="E56" t="n">
-        <v>25.92</v>
+        <v>26.136</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1515,32 +1515,32 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>613.34</v>
+        <v>332</v>
       </c>
       <c r="D57" t="n">
-        <v>678.0599999999999</v>
+        <v>406.32</v>
       </c>
       <c r="E57" t="n">
-        <v>26.688</v>
+        <v>5.288</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>591.14</v>
+        <v>649.72</v>
       </c>
       <c r="D58" t="n">
-        <v>670.52</v>
+        <v>688.0599999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>23.2</v>
+        <v>20.812</v>
       </c>
     </row>
     <row r="59">
@@ -1549,17 +1549,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>670.52</v>
+        <v>518.7</v>
       </c>
       <c r="D59" t="n">
-        <v>747.12</v>
+        <v>564.7</v>
       </c>
       <c r="E59" t="n">
-        <v>19.12</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="60">
@@ -1568,74 +1568,74 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>483.2</v>
+        <v>636.29</v>
       </c>
       <c r="D60" t="n">
-        <v>546.5</v>
+        <v>686.05</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3</v>
+        <v>22.496</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>546.5</v>
+        <v>721.9400000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>617.8</v>
+        <v>794.76</v>
       </c>
       <c r="E61" t="n">
-        <v>30</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>564.7</v>
       </c>
       <c r="D62" t="n">
-        <v>648.08</v>
+        <v>641.48</v>
       </c>
       <c r="E62" t="n">
-        <v>25.352</v>
+        <v>22.012</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>617.8</v>
+        <v>406.32</v>
       </c>
       <c r="D63" t="n">
-        <v>700.1</v>
+        <v>469.42</v>
       </c>
       <c r="E63" t="n">
-        <v>26.4</v>
+        <v>1.088</v>
       </c>
     </row>
     <row r="64">
@@ -1644,150 +1644,150 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>668.2</v>
+        <v>469.42</v>
       </c>
       <c r="D64" t="n">
-        <v>758.52</v>
+        <v>549.14</v>
       </c>
       <c r="E64" t="n">
-        <v>21.968</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>747.12</v>
+        <v>688.0599999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>813.66</v>
+        <v>737.5599999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>16.096</v>
+        <v>17.972</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>648.08</v>
+        <v>737.5599999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>721.88</v>
+        <v>802.9</v>
       </c>
       <c r="E66" t="n">
-        <v>21.572</v>
+        <v>15.508</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>763.42</v>
+        <v>549.14</v>
       </c>
       <c r="D67" t="n">
-        <v>828.08</v>
+        <v>635.24</v>
       </c>
       <c r="E67" t="n">
-        <v>18.668</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>721.88</v>
+        <v>641.48</v>
       </c>
       <c r="D68" t="n">
-        <v>788.4</v>
+        <v>686</v>
       </c>
       <c r="E68" t="n">
-        <v>18.02</v>
+        <v>19.18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>678.0599999999999</v>
+        <v>686.05</v>
       </c>
       <c r="D69" t="n">
-        <v>754.4</v>
+        <v>761.6900000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>22.684</v>
+        <v>19.532</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>700.1</v>
+        <v>686</v>
       </c>
       <c r="D70" t="n">
-        <v>792.4400000000001</v>
+        <v>737.34</v>
       </c>
       <c r="E70" t="n">
-        <v>22.256</v>
+        <v>16.156</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>758.52</v>
+        <v>593.96</v>
       </c>
       <c r="D71" t="n">
-        <v>827.9400000000001</v>
+        <v>669.28</v>
       </c>
       <c r="E71" t="n">
-        <v>19.136</v>
+        <v>22.704</v>
       </c>
     </row>
   </sheetData>
